--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt2-Fzd9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt2-Fzd9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Fzd9</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.520808</v>
+        <v>0.01070233333333333</v>
       </c>
       <c r="H2">
-        <v>7.562424</v>
+        <v>0.032107</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.004227647500550067</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.004227647500550067</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7132103333333334</v>
+        <v>0.083686</v>
       </c>
       <c r="N2">
-        <v>2.139631</v>
+        <v>0.251058</v>
       </c>
       <c r="O2">
-        <v>0.3847801132923274</v>
+        <v>0.08174459316063268</v>
       </c>
       <c r="P2">
-        <v>0.3847801132923274</v>
+        <v>0.08174459316063269</v>
       </c>
       <c r="Q2">
-        <v>1.797866313949334</v>
+        <v>0.0008956354673333333</v>
       </c>
       <c r="R2">
-        <v>16.180796825544</v>
+        <v>0.008060719205999999</v>
       </c>
       <c r="S2">
-        <v>0.3847801132923274</v>
+        <v>0.0003455873249590308</v>
       </c>
       <c r="T2">
-        <v>0.3847801132923274</v>
+        <v>0.0003455873249590309</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.520808</v>
+        <v>0.01070233333333333</v>
       </c>
       <c r="H3">
-        <v>7.562424</v>
+        <v>0.032107</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.004227647500550067</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.004227647500550067</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.831709</v>
       </c>
       <c r="O3">
-        <v>0.3294050219587282</v>
+        <v>0.5964052409947874</v>
       </c>
       <c r="P3">
-        <v>0.3294050219587283</v>
+        <v>0.5964052409947875</v>
       </c>
       <c r="Q3">
-        <v>1.539128900290667</v>
+        <v>0.006534520095888889</v>
       </c>
       <c r="R3">
-        <v>13.852160102616</v>
+        <v>0.05881068086299999</v>
       </c>
       <c r="S3">
-        <v>0.3294050219587282</v>
+        <v>0.002521391126406573</v>
       </c>
       <c r="T3">
-        <v>0.3294050219587283</v>
+        <v>0.002521391126406574</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,247 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
+        <v>0.01070233333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.032107</v>
+      </c>
+      <c r="I4">
+        <v>0.004227647500550067</v>
+      </c>
+      <c r="J4">
+        <v>0.004227647500550067</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.329494</v>
+      </c>
+      <c r="N4">
+        <v>0.988482</v>
+      </c>
+      <c r="O4">
+        <v>0.3218501658445798</v>
+      </c>
+      <c r="P4">
+        <v>0.3218501658445799</v>
+      </c>
+      <c r="Q4">
+        <v>0.003526354619333333</v>
+      </c>
+      <c r="R4">
+        <v>0.031737191574</v>
+      </c>
+      <c r="S4">
+        <v>0.001360669049184462</v>
+      </c>
+      <c r="T4">
+        <v>0.001360669049184463</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>2.520808</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>7.562424</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.529773</v>
-      </c>
-      <c r="N4">
-        <v>1.589319</v>
-      </c>
-      <c r="O4">
-        <v>0.2858148647489443</v>
-      </c>
-      <c r="P4">
-        <v>0.2858148647489444</v>
-      </c>
-      <c r="Q4">
-        <v>1.335456016584</v>
-      </c>
-      <c r="R4">
-        <v>12.019104149256</v>
-      </c>
-      <c r="S4">
-        <v>0.2858148647489443</v>
-      </c>
-      <c r="T4">
-        <v>0.2858148647489444</v>
+      <c r="I5">
+        <v>0.99577235249945</v>
+      </c>
+      <c r="J5">
+        <v>0.99577235249945</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.083686</v>
+      </c>
+      <c r="N5">
+        <v>0.251058</v>
+      </c>
+      <c r="O5">
+        <v>0.08174459316063268</v>
+      </c>
+      <c r="P5">
+        <v>0.08174459316063269</v>
+      </c>
+      <c r="Q5">
+        <v>0.210956338288</v>
+      </c>
+      <c r="R5">
+        <v>1.898607044592</v>
+      </c>
+      <c r="S5">
+        <v>0.08139900583567365</v>
+      </c>
+      <c r="T5">
+        <v>0.08139900583567367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.520808</v>
+      </c>
+      <c r="H6">
+        <v>7.562424</v>
+      </c>
+      <c r="I6">
+        <v>0.99577235249945</v>
+      </c>
+      <c r="J6">
+        <v>0.99577235249945</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.6105696666666667</v>
+      </c>
+      <c r="N6">
+        <v>1.831709</v>
+      </c>
+      <c r="O6">
+        <v>0.5964052409947874</v>
+      </c>
+      <c r="P6">
+        <v>0.5964052409947875</v>
+      </c>
+      <c r="Q6">
+        <v>1.539128900290667</v>
+      </c>
+      <c r="R6">
+        <v>13.852160102616</v>
+      </c>
+      <c r="S6">
+        <v>0.5938838498683808</v>
+      </c>
+      <c r="T6">
+        <v>0.5938838498683809</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.520808</v>
+      </c>
+      <c r="H7">
+        <v>7.562424</v>
+      </c>
+      <c r="I7">
+        <v>0.99577235249945</v>
+      </c>
+      <c r="J7">
+        <v>0.99577235249945</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.329494</v>
+      </c>
+      <c r="N7">
+        <v>0.988482</v>
+      </c>
+      <c r="O7">
+        <v>0.3218501658445798</v>
+      </c>
+      <c r="P7">
+        <v>0.3218501658445799</v>
+      </c>
+      <c r="Q7">
+        <v>0.8305911111520001</v>
+      </c>
+      <c r="R7">
+        <v>7.475320000368</v>
+      </c>
+      <c r="S7">
+        <v>0.3204894967953953</v>
+      </c>
+      <c r="T7">
+        <v>0.3204894967953954</v>
       </c>
     </row>
   </sheetData>
